--- a/output/test4.xlsx
+++ b/output/test4.xlsx
@@ -7,36 +7,36 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet0" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="sheet4" sheetId="5" r:id="rId5"/>
-    <sheet name="sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="sheet6" sheetId="7" r:id="rId7"/>
-    <sheet name="sheet7" sheetId="8" r:id="rId8"/>
-    <sheet name="sheet8" sheetId="9" r:id="rId9"/>
-    <sheet name="sheet9" sheetId="10" r:id="rId10"/>
-    <sheet name="sheet10" sheetId="11" r:id="rId11"/>
-    <sheet name="sheet11" sheetId="12" r:id="rId12"/>
-    <sheet name="sheet12" sheetId="13" r:id="rId13"/>
-    <sheet name="sheet13" sheetId="14" r:id="rId14"/>
-    <sheet name="sheet14" sheetId="15" r:id="rId15"/>
-    <sheet name="sheet15" sheetId="16" r:id="rId16"/>
-    <sheet name="sheet16" sheetId="17" r:id="rId17"/>
-    <sheet name="sheet17" sheetId="18" r:id="rId18"/>
-    <sheet name="sheet18" sheetId="19" r:id="rId19"/>
-    <sheet name="sheet19" sheetId="20" r:id="rId20"/>
-    <sheet name="sheet20" sheetId="21" r:id="rId21"/>
-    <sheet name="sheet21" sheetId="22" r:id="rId22"/>
-    <sheet name="sheet22" sheetId="23" r:id="rId23"/>
-    <sheet name="sheet23" sheetId="24" r:id="rId24"/>
-    <sheet name="sheet24" sheetId="25" r:id="rId25"/>
-    <sheet name="sheet25" sheetId="26" r:id="rId26"/>
-    <sheet name="sheet26" sheetId="27" r:id="rId27"/>
-    <sheet name="sheet27" sheetId="28" r:id="rId28"/>
-    <sheet name="sheet28" sheetId="29" r:id="rId29"/>
-    <sheet name="sheet29" sheetId="30" r:id="rId30"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="sheet24" sheetId="24" r:id="rId24"/>
+    <sheet name="sheet25" sheetId="25" r:id="rId25"/>
+    <sheet name="sheet26" sheetId="26" r:id="rId26"/>
+    <sheet name="sheet27" sheetId="27" r:id="rId27"/>
+    <sheet name="sheet28" sheetId="28" r:id="rId28"/>
+    <sheet name="sheet29" sheetId="29" r:id="rId29"/>
+    <sheet name="sheet30" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
